--- a/29. 2BONUS - Páneles para Inmovilizar.xlsx.xlsx
+++ b/29. 2BONUS - Páneles para Inmovilizar.xlsx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Miguel Maraby\Video Cursos\Excel 2017\Producción\Excel y Word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAUL\Downloads\Materiales-Para-Descargar\Curso_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE32551-7074-4944-A2A0-AEA5346DBEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{5BD10759-E440-4A1D-AAAA-1C3F2A4879AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{5BD10759-E440-4A1D-AAAA-1C3F2A4879AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de Medios" sheetId="2" r:id="rId1"/>
@@ -528,30 +529,26 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,10 +564,13 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,7 +582,9 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -592,11 +594,10 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -916,226 +917,224 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="10"/>
-    <col min="3" max="3" width="4.5703125" style="10" customWidth="1"/>
-    <col min="4" max="6" width="5.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="34" width="5.28515625" style="10" customWidth="1"/>
-    <col min="35" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="2" width="11.3984375" style="8"/>
+    <col min="3" max="3" width="4.59765625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="5.265625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="34" width="5.265625" style="8" customWidth="1"/>
+    <col min="35" max="16384" width="11.3984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:34" ht="21.4" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="D1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:34" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="15" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:34" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
         <v>3</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="11">
         <v>4</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="11">
         <v>5</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="11">
         <v>6</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="11">
         <v>7</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="11">
         <v>8</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="11">
         <v>9</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="11">
         <v>10</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="11">
         <v>11</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="11">
         <v>12</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="11">
         <v>13</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="11">
         <v>14</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="11">
         <v>15</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="11">
         <v>16</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="11">
         <v>17</v>
       </c>
-      <c r="U3" s="17">
+      <c r="U3" s="11">
         <v>18</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="11">
         <v>19</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="11">
         <v>20</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="11">
         <v>21</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="11">
         <v>22</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="11">
         <v>23</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="11">
         <v>24</v>
       </c>
-      <c r="AB3" s="17">
+      <c r="AB3" s="11">
         <v>25</v>
       </c>
-      <c r="AC3" s="17">
+      <c r="AC3" s="11">
         <v>26</v>
       </c>
-      <c r="AD3" s="17">
+      <c r="AD3" s="11">
         <v>27</v>
       </c>
-      <c r="AE3" s="17">
+      <c r="AE3" s="11">
         <v>28</v>
       </c>
-      <c r="AF3" s="17">
+      <c r="AF3" s="11">
         <v>29</v>
       </c>
-      <c r="AG3" s="17">
+      <c r="AG3" s="11">
         <v>30</v>
       </c>
-      <c r="AH3" s="17">
+      <c r="AH3" s="11">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
@@ -1173,287 +1172,287 @@
       <c r="AG4" s="21"/>
       <c r="AH4" s="22"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="29" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-    </row>
-    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+    </row>
+    <row r="12" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
@@ -1491,287 +1490,287 @@
       <c r="AG12" s="21"/>
       <c r="AH12" s="22"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="28"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-    </row>
-    <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+    </row>
+    <row r="20" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>32</v>
       </c>
@@ -1809,49 +1808,49 @@
       <c r="AG20" s="21"/>
       <c r="AH20" s="22"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="32">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13">
         <v>1</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="13">
         <v>1</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-    </row>
-    <row r="22" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+    </row>
+    <row r="22" spans="1:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>34</v>
       </c>
@@ -1889,355 +1888,370 @@
       <c r="AG22" s="21"/>
       <c r="AH22" s="22"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="32">
-        <v>2</v>
-      </c>
-      <c r="E23" s="32">
-        <v>2</v>
-      </c>
-      <c r="F23" s="32">
-        <v>2</v>
-      </c>
-      <c r="G23" s="32">
-        <v>2</v>
-      </c>
-      <c r="H23" s="32">
-        <v>2</v>
-      </c>
-      <c r="I23" s="32">
-        <v>2</v>
-      </c>
-      <c r="J23" s="32">
-        <v>2</v>
-      </c>
-      <c r="K23" s="32">
-        <v>2</v>
-      </c>
-      <c r="L23" s="32">
-        <v>2</v>
-      </c>
-      <c r="M23" s="32">
-        <v>2</v>
-      </c>
-      <c r="N23" s="32">
-        <v>2</v>
-      </c>
-      <c r="O23" s="32">
-        <v>2</v>
-      </c>
-      <c r="P23" s="32">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="32">
-        <v>2</v>
-      </c>
-      <c r="R23" s="32">
-        <v>2</v>
-      </c>
-      <c r="S23" s="32">
-        <v>2</v>
-      </c>
-      <c r="T23" s="32">
-        <v>2</v>
-      </c>
-      <c r="U23" s="32">
-        <v>2</v>
-      </c>
-      <c r="V23" s="32">
-        <v>2</v>
-      </c>
-      <c r="W23" s="32">
-        <v>2</v>
-      </c>
-      <c r="X23" s="32">
-        <v>2</v>
-      </c>
-      <c r="Y23" s="32">
-        <v>2</v>
-      </c>
-      <c r="Z23" s="32">
-        <v>2</v>
-      </c>
-      <c r="AA23" s="32">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="32">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="32">
-        <v>2</v>
-      </c>
-      <c r="AD23" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF23" s="32">
-        <v>2</v>
-      </c>
-      <c r="AG23" s="32">
-        <v>2</v>
-      </c>
-      <c r="AH23" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2</v>
+      </c>
+      <c r="G23" s="13">
+        <v>2</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2</v>
+      </c>
+      <c r="I23" s="13">
+        <v>2</v>
+      </c>
+      <c r="J23" s="13">
+        <v>2</v>
+      </c>
+      <c r="K23" s="13">
+        <v>2</v>
+      </c>
+      <c r="L23" s="13">
+        <v>2</v>
+      </c>
+      <c r="M23" s="13">
+        <v>2</v>
+      </c>
+      <c r="N23" s="13">
+        <v>2</v>
+      </c>
+      <c r="O23" s="13">
+        <v>2</v>
+      </c>
+      <c r="P23" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>2</v>
+      </c>
+      <c r="R23" s="13">
+        <v>2</v>
+      </c>
+      <c r="S23" s="13">
+        <v>2</v>
+      </c>
+      <c r="T23" s="13">
+        <v>2</v>
+      </c>
+      <c r="U23" s="13">
+        <v>2</v>
+      </c>
+      <c r="V23" s="13">
+        <v>2</v>
+      </c>
+      <c r="W23" s="13">
+        <v>2</v>
+      </c>
+      <c r="X23" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH23" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="32">
-        <v>2</v>
-      </c>
-      <c r="E24" s="32">
-        <v>2</v>
-      </c>
-      <c r="F24" s="32">
-        <v>2</v>
-      </c>
-      <c r="G24" s="32">
-        <v>2</v>
-      </c>
-      <c r="H24" s="32">
-        <v>2</v>
-      </c>
-      <c r="I24" s="32">
-        <v>2</v>
-      </c>
-      <c r="J24" s="32">
-        <v>2</v>
-      </c>
-      <c r="K24" s="32">
-        <v>2</v>
-      </c>
-      <c r="L24" s="32">
-        <v>2</v>
-      </c>
-      <c r="M24" s="32">
-        <v>2</v>
-      </c>
-      <c r="N24" s="32">
-        <v>2</v>
-      </c>
-      <c r="O24" s="32">
-        <v>2</v>
-      </c>
-      <c r="P24" s="32">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="32">
-        <v>2</v>
-      </c>
-      <c r="R24" s="32">
-        <v>2</v>
-      </c>
-      <c r="S24" s="32">
-        <v>2</v>
-      </c>
-      <c r="T24" s="32">
-        <v>2</v>
-      </c>
-      <c r="U24" s="32">
-        <v>2</v>
-      </c>
-      <c r="V24" s="32">
-        <v>2</v>
-      </c>
-      <c r="W24" s="32">
-        <v>2</v>
-      </c>
-      <c r="X24" s="32">
-        <v>2</v>
-      </c>
-      <c r="Y24" s="32">
-        <v>2</v>
-      </c>
-      <c r="Z24" s="32">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="32">
-        <v>2</v>
-      </c>
-      <c r="AB24" s="32">
-        <v>2</v>
-      </c>
-      <c r="AC24" s="32">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE24" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF24" s="32">
-        <v>2</v>
-      </c>
-      <c r="AG24" s="32">
-        <v>2</v>
-      </c>
-      <c r="AH24" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="13">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13">
+        <v>2</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2</v>
+      </c>
+      <c r="G24" s="13">
+        <v>2</v>
+      </c>
+      <c r="H24" s="13">
+        <v>2</v>
+      </c>
+      <c r="I24" s="13">
+        <v>2</v>
+      </c>
+      <c r="J24" s="13">
+        <v>2</v>
+      </c>
+      <c r="K24" s="13">
+        <v>2</v>
+      </c>
+      <c r="L24" s="13">
+        <v>2</v>
+      </c>
+      <c r="M24" s="13">
+        <v>2</v>
+      </c>
+      <c r="N24" s="13">
+        <v>2</v>
+      </c>
+      <c r="O24" s="13">
+        <v>2</v>
+      </c>
+      <c r="P24" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>2</v>
+      </c>
+      <c r="R24" s="13">
+        <v>2</v>
+      </c>
+      <c r="S24" s="13">
+        <v>2</v>
+      </c>
+      <c r="T24" s="13">
+        <v>2</v>
+      </c>
+      <c r="U24" s="13">
+        <v>2</v>
+      </c>
+      <c r="V24" s="13">
+        <v>2</v>
+      </c>
+      <c r="W24" s="13">
+        <v>2</v>
+      </c>
+      <c r="X24" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A25" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="32">
-        <v>2</v>
-      </c>
-      <c r="E25" s="32">
-        <v>2</v>
-      </c>
-      <c r="F25" s="32">
-        <v>2</v>
-      </c>
-      <c r="G25" s="32">
-        <v>2</v>
-      </c>
-      <c r="H25" s="32">
-        <v>2</v>
-      </c>
-      <c r="I25" s="32">
-        <v>2</v>
-      </c>
-      <c r="J25" s="32">
-        <v>2</v>
-      </c>
-      <c r="K25" s="32">
-        <v>2</v>
-      </c>
-      <c r="L25" s="32">
-        <v>2</v>
-      </c>
-      <c r="M25" s="32">
-        <v>2</v>
-      </c>
-      <c r="N25" s="32">
-        <v>2</v>
-      </c>
-      <c r="O25" s="32">
-        <v>2</v>
-      </c>
-      <c r="P25" s="32">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="32">
-        <v>2</v>
-      </c>
-      <c r="R25" s="32">
-        <v>2</v>
-      </c>
-      <c r="S25" s="32">
-        <v>2</v>
-      </c>
-      <c r="T25" s="32">
-        <v>2</v>
-      </c>
-      <c r="U25" s="32">
-        <v>2</v>
-      </c>
-      <c r="V25" s="32">
-        <v>2</v>
-      </c>
-      <c r="W25" s="32">
-        <v>2</v>
-      </c>
-      <c r="X25" s="32">
-        <v>2</v>
-      </c>
-      <c r="Y25" s="32">
-        <v>2</v>
-      </c>
-      <c r="Z25" s="32">
-        <v>2</v>
-      </c>
-      <c r="AA25" s="32">
-        <v>2</v>
-      </c>
-      <c r="AB25" s="32">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="32">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="32">
-        <v>2</v>
-      </c>
-      <c r="AF25" s="32">
-        <v>2</v>
-      </c>
-      <c r="AG25" s="32">
-        <v>2</v>
-      </c>
-      <c r="AH25" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13">
+        <v>2</v>
+      </c>
+      <c r="H25" s="13">
+        <v>2</v>
+      </c>
+      <c r="I25" s="13">
+        <v>2</v>
+      </c>
+      <c r="J25" s="13">
+        <v>2</v>
+      </c>
+      <c r="K25" s="13">
+        <v>2</v>
+      </c>
+      <c r="L25" s="13">
+        <v>2</v>
+      </c>
+      <c r="M25" s="13">
+        <v>2</v>
+      </c>
+      <c r="N25" s="13">
+        <v>2</v>
+      </c>
+      <c r="O25" s="13">
+        <v>2</v>
+      </c>
+      <c r="P25" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>2</v>
+      </c>
+      <c r="R25" s="13">
+        <v>2</v>
+      </c>
+      <c r="S25" s="13">
+        <v>2</v>
+      </c>
+      <c r="T25" s="13">
+        <v>2</v>
+      </c>
+      <c r="U25" s="13">
+        <v>2</v>
+      </c>
+      <c r="V25" s="13">
+        <v>2</v>
+      </c>
+      <c r="W25" s="13">
+        <v>2</v>
+      </c>
+      <c r="X25" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="13">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G26:AH26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D22:AH22"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:AH20"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="P17:S17"/>
+    <mergeCell ref="P18:S18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D12:AH12"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D1:G1"/>
@@ -2249,31 +2263,16 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="P18:S18"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
     <mergeCell ref="D4:AH4"/>
-    <mergeCell ref="D12:AH12"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:AH20"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G26:AH26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D22:AH22"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2287,36 +2286,36 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="7.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.3984375" style="2"/>
+    <col min="2" max="2" width="18.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="7.3984375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.3984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2324,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2336,18 +2335,18 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2357,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
